--- a/統合ファイル/敵.xlsx
+++ b/統合ファイル/敵.xlsx
@@ -258,19 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,17 +287,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +325,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,106 +425,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,31 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,91 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +500,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +584,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,41 +980,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,13 +1013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,153 +1036,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,136 +1216,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
@@ -2627,7 +2620,7 @@
         <v>128</v>
       </c>
       <c r="I4" s="42">
-        <f>I3+64</f>
+        <f t="shared" ref="I4:I20" si="0">I3+64</f>
         <v>128</v>
       </c>
       <c r="J4" s="6"/>
@@ -2638,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="33">
-        <f>128+D4</f>
+        <f t="shared" ref="D5:D12" si="1">128+D4</f>
         <v>256</v>
       </c>
       <c r="E5" s="34">
@@ -2651,7 +2644,7 @@
         <v>128</v>
       </c>
       <c r="I5" s="41">
-        <f>I4+64</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
       <c r="J5" s="10">
@@ -2664,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="7">
-        <f>128+D5</f>
+        <f t="shared" si="1"/>
         <v>384</v>
       </c>
       <c r="E6" s="6">
@@ -2677,7 +2670,7 @@
         <v>128</v>
       </c>
       <c r="I6" s="42">
-        <f>I5+64</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="J6" s="6"/>
@@ -2690,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="25">
-        <f>128+D6</f>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="E7" s="26">
@@ -2703,7 +2696,7 @@
         <v>128</v>
       </c>
       <c r="I7" s="41">
-        <f>I6+64</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="J7" s="10">
@@ -2716,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="29">
-        <f>128+D7</f>
+        <f t="shared" si="1"/>
         <v>640</v>
       </c>
       <c r="E8" s="30">
@@ -2729,7 +2722,7 @@
         <v>128</v>
       </c>
       <c r="I8" s="42">
-        <f>I7+64</f>
+        <f t="shared" si="0"/>
         <v>384</v>
       </c>
       <c r="J8" s="6"/>
@@ -2740,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="38">
-        <f>128+D8</f>
+        <f t="shared" si="1"/>
         <v>768</v>
       </c>
       <c r="E9" s="39">
@@ -2753,7 +2746,7 @@
         <v>128</v>
       </c>
       <c r="I9" s="41">
-        <f>I8+64</f>
+        <f t="shared" si="0"/>
         <v>448</v>
       </c>
       <c r="J9" s="10">
@@ -2768,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="11">
-        <f>128+D9</f>
+        <f t="shared" si="1"/>
         <v>896</v>
       </c>
       <c r="E10" s="10">
@@ -2781,7 +2774,7 @@
         <v>128</v>
       </c>
       <c r="I10" s="42">
-        <f>I9+64</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="J10" s="6"/>
@@ -2792,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="33">
-        <f>128+D10</f>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="E11" s="34">
@@ -2805,7 +2798,7 @@
         <v>128</v>
       </c>
       <c r="I11" s="41">
-        <f>I10+64</f>
+        <f t="shared" si="0"/>
         <v>576</v>
       </c>
       <c r="J11" s="10">
@@ -2818,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <f>128+D11</f>
+        <f t="shared" si="1"/>
         <v>1152</v>
       </c>
       <c r="E12" s="6">
@@ -2831,7 +2824,7 @@
         <v>128</v>
       </c>
       <c r="I12" s="42">
-        <f>I11+64</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="J12" s="6"/>
@@ -2856,7 +2849,7 @@
         <v>128</v>
       </c>
       <c r="I13" s="41">
-        <f>I12+64</f>
+        <f t="shared" si="0"/>
         <v>704</v>
       </c>
       <c r="J13" s="10">
@@ -2881,7 +2874,7 @@
         <v>128</v>
       </c>
       <c r="I14" s="42">
-        <f>I13+64</f>
+        <f t="shared" si="0"/>
         <v>768</v>
       </c>
       <c r="J14" s="6"/>
@@ -2904,7 +2897,7 @@
         <v>128</v>
       </c>
       <c r="I15" s="41">
-        <f>I14+64</f>
+        <f t="shared" si="0"/>
         <v>832</v>
       </c>
       <c r="J15" s="10">
@@ -2929,7 +2922,7 @@
         <v>128</v>
       </c>
       <c r="I16" s="42">
-        <f>I15+64</f>
+        <f t="shared" si="0"/>
         <v>896</v>
       </c>
       <c r="J16" s="6"/>
@@ -2952,7 +2945,7 @@
         <v>128</v>
       </c>
       <c r="I17" s="41">
-        <f>I16+64</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="J17" s="10">
@@ -2977,7 +2970,7 @@
         <v>128</v>
       </c>
       <c r="I18" s="42">
-        <f>I17+64</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="J18" s="6"/>
@@ -3000,7 +2993,7 @@
         <v>128</v>
       </c>
       <c r="I19" s="41">
-        <f>I18+64</f>
+        <f t="shared" si="0"/>
         <v>1088</v>
       </c>
       <c r="J19" s="10">
@@ -3025,7 +3018,7 @@
         <v>128</v>
       </c>
       <c r="I20" s="42">
-        <f>I19+64</f>
+        <f t="shared" si="0"/>
         <v>1152</v>
       </c>
       <c r="J20" s="6"/>
@@ -3346,7 +3339,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="30" customHeight="1"/>
